--- a/dados.xlsx
+++ b/dados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre.preis\Documents\Projeto_Bot_Vendas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9315B52D-E6B3-42D6-85B3-76392B10EC29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17ADB8BF-22E6-4D02-B2A1-4D623E0FF512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>nome</t>
   </si>
@@ -32,48 +32,6 @@
   </si>
   <si>
     <t>qtd_disponivel</t>
-  </si>
-  <si>
-    <t>Novalgina 10mg</t>
-  </si>
-  <si>
-    <t>R$ 19,00</t>
-  </si>
-  <si>
-    <t>Novalgina 30mg</t>
-  </si>
-  <si>
-    <t>R$ 37,00</t>
-  </si>
-  <si>
-    <t>Aspirina</t>
-  </si>
-  <si>
-    <t>R$ 9,00</t>
-  </si>
-  <si>
-    <t>Dipirona Sódica 500mg</t>
-  </si>
-  <si>
-    <t>R$ 12,50</t>
-  </si>
-  <si>
-    <t>Ibuprofeno 200mg</t>
-  </si>
-  <si>
-    <t>R$ 15,90</t>
-  </si>
-  <si>
-    <t>Paracetamol 750mg</t>
-  </si>
-  <si>
-    <t>R$ 11,00</t>
-  </si>
-  <si>
-    <t>Omeprazol 20mg</t>
-  </si>
-  <si>
-    <t>R$ 8,70</t>
   </si>
   <si>
     <t>Loratadina 10mg</t>
@@ -454,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -490,10 +448,10 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>198261875</v>
+        <v>128764399</v>
       </c>
       <c r="D2">
-        <v>49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -504,10 +462,10 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>687618723</v>
+        <v>761239846</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -518,107 +476,9 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>313159186</v>
+        <v>687451209</v>
       </c>
       <c r="D4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5">
-        <v>812376451</v>
-      </c>
-      <c r="D5">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6">
-        <v>445781234</v>
-      </c>
-      <c r="D6">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7">
-        <v>992314578</v>
-      </c>
-      <c r="D7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8">
-        <v>553871244</v>
-      </c>
-      <c r="D8">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9">
-        <v>128764399</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10">
-        <v>761239846</v>
-      </c>
-      <c r="D10">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11">
-        <v>687451209</v>
-      </c>
-      <c r="D11">
         <v>12</v>
       </c>
     </row>

--- a/dados.xlsx
+++ b/dados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre.preis\Documents\Projeto_Bot_Vendas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17ADB8BF-22E6-4D02-B2A1-4D623E0FF512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADB62121-4C30-4E77-97B6-07B3C2A625FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>nome</t>
   </si>
@@ -34,29 +34,105 @@
     <t>qtd_disponivel</t>
   </si>
   <si>
+    <t>Novalgina 10mg</t>
+  </si>
+  <si>
+    <t>Novalgina 30mg</t>
+  </si>
+  <si>
+    <t>Aspirina</t>
+  </si>
+  <si>
+    <t>Dipirona Sódica 500mg</t>
+  </si>
+  <si>
+    <t>Ibuprofeno 200mg</t>
+  </si>
+  <si>
+    <t>Paracetamol 750mg</t>
+  </si>
+  <si>
+    <t>Omeprazol 20mg</t>
+  </si>
+  <si>
     <t>Loratadina 10mg</t>
   </si>
   <si>
-    <t>R$ 16,30</t>
-  </si>
-  <si>
     <t>Captopril 25mg</t>
   </si>
   <si>
-    <t>R$ 7,90</t>
-  </si>
-  <si>
     <t>Amoxicilina 500mg</t>
   </si>
   <si>
-    <t>R$ 28,40</t>
+    <t>Metformina 500mg</t>
+  </si>
+  <si>
+    <t>Losartana 50mg</t>
+  </si>
+  <si>
+    <t>Atenolol 50mg</t>
+  </si>
+  <si>
+    <t>Cetirizina 10mg</t>
+  </si>
+  <si>
+    <t>Ranitidina 150mg</t>
+  </si>
+  <si>
+    <t>Diclofenaco 50mg</t>
+  </si>
+  <si>
+    <t>Furosemida 40mg</t>
+  </si>
+  <si>
+    <t>Glibenclamida 5mg</t>
+  </si>
+  <si>
+    <t>Nimesulida 100mg</t>
+  </si>
+  <si>
+    <t>Simvastatina 20mg</t>
+  </si>
+  <si>
+    <t>Clonazepam 2mg</t>
+  </si>
+  <si>
+    <t>Ácido Acetilsalicílico 500mg</t>
+  </si>
+  <si>
+    <t>Sinvastatina 40mg</t>
+  </si>
+  <si>
+    <t>Bromoprida 10mg</t>
+  </si>
+  <si>
+    <t>Fluoxetina 20mg</t>
+  </si>
+  <si>
+    <t>Hidroclorotiazida 25mg</t>
+  </si>
+  <si>
+    <t>Enalapril 10mg</t>
+  </si>
+  <si>
+    <t>Metoclopramida 10mg</t>
+  </si>
+  <si>
+    <t>Azitromicina 500mg</t>
+  </si>
+  <si>
+    <t>Pantoprazol 40mg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="8" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,6 +144,19 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -102,17 +191,40 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{1E8750ED-5499-439F-96CD-225322DAEAED}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -412,77 +524,457 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2">
+        <v>19</v>
+      </c>
+      <c r="C2" s="4">
+        <v>198261875</v>
+      </c>
+      <c r="D2" s="4">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2">
+      <c r="B3" s="2">
+        <v>37</v>
+      </c>
+      <c r="C3" s="4">
+        <v>687618723</v>
+      </c>
+      <c r="D3" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2">
+        <v>9</v>
+      </c>
+      <c r="C4" s="4">
+        <v>313159186</v>
+      </c>
+      <c r="D4" s="4">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2">
+        <v>12.5</v>
+      </c>
+      <c r="C5" s="4">
+        <v>812376451</v>
+      </c>
+      <c r="D5" s="4">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2">
+        <v>15.9</v>
+      </c>
+      <c r="C6" s="4">
+        <v>445781234</v>
+      </c>
+      <c r="D6" s="4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="2">
+        <v>11</v>
+      </c>
+      <c r="C7" s="4">
+        <v>992314578</v>
+      </c>
+      <c r="D7" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="2">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="C8" s="4">
+        <v>553871244</v>
+      </c>
+      <c r="D8" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="2">
+        <v>16.3</v>
+      </c>
+      <c r="C9" s="4">
         <v>128764399</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3">
+      <c r="D9" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="2">
+        <v>7.9</v>
+      </c>
+      <c r="C10" s="4">
         <v>761239846</v>
       </c>
-      <c r="D3">
+      <c r="D10" s="4">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="2">
+        <v>28.4</v>
+      </c>
+      <c r="C11" s="4">
+        <v>687451209</v>
+      </c>
+      <c r="D11" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="2">
+        <v>14.2</v>
+      </c>
+      <c r="C12" s="4">
+        <v>334567890</v>
+      </c>
+      <c r="D12" s="4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="2">
+        <v>22.8</v>
+      </c>
+      <c r="C13" s="4">
+        <v>987654321</v>
+      </c>
+      <c r="D13" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="2">
+        <v>10.5</v>
+      </c>
+      <c r="C14" s="4">
+        <v>221133445</v>
+      </c>
+      <c r="D14" s="4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="2">
+        <v>13.9</v>
+      </c>
+      <c r="C15" s="4">
+        <v>556677889</v>
+      </c>
+      <c r="D15" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="2">
+        <v>6.8</v>
+      </c>
+      <c r="C16" s="4">
+        <v>443322110</v>
+      </c>
+      <c r="D16" s="4">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="2">
+        <v>18.7</v>
+      </c>
+      <c r="C17" s="4">
+        <v>889900112</v>
+      </c>
+      <c r="D17" s="4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="2">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="C18" s="4">
+        <v>776655443</v>
+      </c>
+      <c r="D18" s="4">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="2">
+        <v>11.4</v>
+      </c>
+      <c r="C19" s="4">
+        <v>112233445</v>
+      </c>
+      <c r="D19" s="4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="2">
+        <v>24.5</v>
+      </c>
+      <c r="C20" s="4">
+        <v>667788990</v>
+      </c>
+      <c r="D20" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="2">
+        <v>16.8</v>
+      </c>
+      <c r="C21" s="4">
+        <v>990011223</v>
+      </c>
+      <c r="D21" s="4">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="2">
+        <v>35</v>
+      </c>
+      <c r="C22" s="4">
+        <v>332211009</v>
+      </c>
+      <c r="D22" s="4">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4">
-        <v>687451209</v>
-      </c>
-      <c r="D4">
-        <v>12</v>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="2">
+        <v>7.6</v>
+      </c>
+      <c r="C23" s="4">
+        <v>554433221</v>
+      </c>
+      <c r="D23" s="4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="2">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="C24" s="4">
+        <v>223344556</v>
+      </c>
+      <c r="D24" s="4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="2">
+        <v>12.8</v>
+      </c>
+      <c r="C25" s="4">
+        <v>778899001</v>
+      </c>
+      <c r="D25" s="4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="2">
+        <v>29.9</v>
+      </c>
+      <c r="C26" s="4">
+        <v>445566778</v>
+      </c>
+      <c r="D26" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="2">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="C27" s="4">
+        <v>110099887</v>
+      </c>
+      <c r="D27" s="4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="2">
+        <v>13.5</v>
+      </c>
+      <c r="C28" s="4">
+        <v>665544332</v>
+      </c>
+      <c r="D28" s="4">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="2">
+        <v>11.7</v>
+      </c>
+      <c r="C29" s="4">
+        <v>887766554</v>
+      </c>
+      <c r="D29" s="4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="2">
+        <v>32.6</v>
+      </c>
+      <c r="C30" s="4">
+        <v>998877665</v>
+      </c>
+      <c r="D30" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="2">
+        <v>20.3</v>
+      </c>
+      <c r="C31" s="4">
+        <v>334455667</v>
+      </c>
+      <c r="D31" s="4">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>